--- a/validation/sandwichPanel.xlsx
+++ b/validation/sandwichPanel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryshan/Toby Playpad Dropbox/Shannon Ryan/GitHub/pyBLOSSUM/validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deakin365-my.sharepoint.com/personal/shannon_ryan_deakin_edu_au/Documents/Documents/GitHub/pyBLOSSUM/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479C6DDA-2EAA-C74D-88BD-74A12EE09507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{479C6DDA-2EAA-C74D-88BD-74A12EE09507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{185FB327-45F1-4C76-9343-17D76622F422}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{E3B040CA-69B4-9245-BC18-5CDDCAF2FE7B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E3B040CA-69B4-9245-BC18-5CDDCAF2FE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="BLC" sheetId="3" r:id="rId1"/>
@@ -230,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,7 +331,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7900,10 +7900,11 @@
             <c:v>python - config2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -8843,7 +8844,7 @@
             <c:v>python - config3</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -9787,7 +9788,7 @@
             <c:v>python - config4</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -10731,7 +10732,7 @@
             <c:v>python - config5</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -11675,7 +11676,7 @@
             <c:v>python - config6</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -12619,7 +12620,7 @@
             <c:v>python - config7</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
@@ -14440,7 +14441,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E7FA7087-BD89-B84D-807E-B9B7BEBE2506}">
   <sheetPr codeName="Chart1"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14451,7 +14452,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9308439" cy="6071040"/>
+    <xdr:ext cx="9277089" cy="6041199"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -14800,17 +14801,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -14818,7 +14819,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -14826,12 +14827,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -14860,7 +14861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -14889,7 +14890,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -14918,7 +14919,7 @@
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -14947,7 +14948,7 @@
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>49</v>
       </c>
@@ -14976,7 +14977,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
@@ -15005,7 +15006,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
@@ -15034,7 +15035,7 @@
         <v>0.49630000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
@@ -15064,7 +15065,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -15094,7 +15095,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -15124,7 +15125,7 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -15154,7 +15155,7 @@
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -15183,12 +15184,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -15198,7 +15199,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -15227,7 +15228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
@@ -15253,10 +15254,10 @@
         <v>2.79</v>
       </c>
       <c r="I20" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
@@ -15282,10 +15283,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="6">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -15293,7 +15294,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -15302,7 +15303,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="8" t="s">
         <v>37</v>
@@ -15329,7 +15330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>0.1</v>
       </c>
@@ -15355,7 +15356,7 @@
         <v>1.5241237913097265</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>0.2</v>
       </c>
@@ -15381,7 +15382,7 @@
         <v>0.98377557236296809</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>0.3</v>
       </c>
@@ -15407,7 +15408,7 @@
         <v>0.76151857752403473</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>0.4</v>
       </c>
@@ -15433,7 +15434,7 @@
         <v>0.63499722417324966</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>0.5</v>
       </c>
@@ -15459,7 +15460,7 @@
         <v>0.551525380370114</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>0.6</v>
       </c>
@@ -15485,7 +15486,7 @@
         <v>0.4915370908454631</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>0.7</v>
       </c>
@@ -15511,7 +15512,7 @@
         <v>0.44593762020526484</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>0.8</v>
       </c>
@@ -15537,7 +15538,7 @@
         <v>0.40987140363652175</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>0.9</v>
       </c>
@@ -15563,7 +15564,7 @@
         <v>0.38048782337810916</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>1</v>
       </c>
@@ -15589,7 +15590,7 @@
         <v>0.3559928660913162</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -15615,7 +15616,7 @@
         <v>0.33519578319030147</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>1.2</v>
       </c>
@@ -15641,7 +15642,7 @@
         <v>0.31727224890872147</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>1.3</v>
       </c>
@@ -15667,7 +15668,7 @@
         <v>0.30163176300818523</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>1.4</v>
       </c>
@@ -15693,7 +15694,7 @@
         <v>0.28783917688117949</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>1.5</v>
       </c>
@@ -15719,7 +15720,7 @@
         <v>0.27556608296687973</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>1.6</v>
       </c>
@@ -15745,7 +15746,7 @@
         <v>0.26455953053605424</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>1.7</v>
       </c>
@@ -15771,7 +15772,7 @@
         <v>0.25462122770386192</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>1.8</v>
       </c>
@@ -15797,7 +15798,7 @@
         <v>0.24559332277024506</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>1.9</v>
       </c>
@@ -15823,7 +15824,7 @@
         <v>0.23734844412635989</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>2</v>
       </c>
@@ -15849,7 +15850,7 @@
         <v>0.22978257251346082</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>2.1</v>
       </c>
@@ -15875,7 +15876,7 @@
         <v>0.22280984270401458</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -15901,7 +15902,7 @@
         <v>0.21635868775352007</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -15927,7 +15928,7 @@
         <v>0.21036893538724522</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>2.4</v>
       </c>
@@ -15953,7 +15954,7 @@
         <v>0.20478959126859714</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>2.5</v>
       </c>
@@ -15979,7 +15980,7 @@
         <v>0.19957712551091897</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>2.6</v>
       </c>
@@ -16005,7 +16006,7 @@
         <v>0.1946941331066242</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>2.7</v>
       </c>
@@ -16031,7 +16032,7 @@
         <v>0.19010827576881009</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>2.8</v>
       </c>
@@ -16057,7 +16058,7 @@
         <v>0.18579143807041557</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>2.9</v>
       </c>
@@ -16083,7 +16084,7 @@
         <v>0.18508819155018466</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>3</v>
       </c>
@@ -16109,7 +16110,7 @@
         <v>0.18622575578395029</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>3.1</v>
       </c>
@@ -16135,7 +16136,7 @@
         <v>0.18736332001771594</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>3.2</v>
       </c>
@@ -16161,7 +16162,7 @@
         <v>0.18850088425148157</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>3.3</v>
       </c>
@@ -16187,7 +16188,7 @@
         <v>0.18963844848524719</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>3.4</v>
       </c>
@@ -16213,7 +16214,7 @@
         <v>0.19077601271901284</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>3.5</v>
       </c>
@@ -16239,7 +16240,7 @@
         <v>0.19191357695277847</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>3.6</v>
       </c>
@@ -16265,7 +16266,7 @@
         <v>0.19305114118654412</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>3.7</v>
       </c>
@@ -16291,7 +16292,7 @@
         <v>0.19418870542030975</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>3.8</v>
       </c>
@@ -16317,7 +16318,7 @@
         <v>0.1953262696540754</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>3.9</v>
       </c>
@@ -16343,7 +16344,7 @@
         <v>0.19646383388784103</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>4</v>
       </c>
@@ -16369,7 +16370,7 @@
         <v>0.19760139812160665</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -16395,7 +16396,7 @@
         <v>0.19873896235537231</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>4.2</v>
       </c>
@@ -16421,7 +16422,7 @@
         <v>0.19987652658913793</v>
       </c>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>4.3</v>
       </c>
@@ -16447,7 +16448,7 @@
         <v>0.20101409082290358</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -16473,7 +16474,7 @@
         <v>0.20215165505666921</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>4.5</v>
       </c>
@@ -16499,7 +16500,7 @@
         <v>0.20328921929043486</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -16525,7 +16526,7 @@
         <v>0.20442678352420049</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>4.7</v>
       </c>
@@ -16551,7 +16552,7 @@
         <v>0.20556434775796611</v>
       </c>
     </row>
-    <row r="72" spans="2:9">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>4.8</v>
       </c>
@@ -16577,7 +16578,7 @@
         <v>0.20670191199173177</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -16603,7 +16604,7 @@
         <v>0.20783947622549739</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>5</v>
       </c>
@@ -16629,7 +16630,7 @@
         <v>0.20897704045926305</v>
       </c>
     </row>
-    <row r="75" spans="2:9">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -16655,7 +16656,7 @@
         <v>0.20804797513338241</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>5.2</v>
       </c>
@@ -16681,7 +16682,7 @@
         <v>0.20643827729885714</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>5.3</v>
       </c>
@@ -16707,7 +16708,7 @@
         <v>0.20487134370848059</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>5.4</v>
       </c>
@@ -16733,7 +16734,7 @@
         <v>0.20334526299583328</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>5.5</v>
       </c>
@@ -16759,7 +16760,7 @@
         <v>0.2018582426087413</v>
       </c>
     </row>
-    <row r="80" spans="2:9">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>5.6</v>
       </c>
@@ -16785,7 +16786,7 @@
         <v>0.20040859942273989</v>
       </c>
     </row>
-    <row r="81" spans="2:9">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>5.7</v>
       </c>
@@ -16811,7 +16812,7 @@
         <v>0.19899475124858607</v>
       </c>
     </row>
-    <row r="82" spans="2:9">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>5.8</v>
       </c>
@@ -16837,7 +16838,7 @@
         <v>0.19761520913464292</v>
       </c>
     </row>
-    <row r="83" spans="2:9">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>5.9</v>
       </c>
@@ -16863,7 +16864,7 @@
         <v>0.19626857037746051</v>
       </c>
     </row>
-    <row r="84" spans="2:9">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>6</v>
       </c>
@@ -16889,7 +16890,7 @@
         <v>0.19495351216462531</v>
       </c>
     </row>
-    <row r="85" spans="2:9">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>6.1</v>
       </c>
@@ -16915,7 +16916,7 @@
         <v>0.19366878578320654</v>
       </c>
     </row>
-    <row r="86" spans="2:9">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>6.2</v>
       </c>
@@ -16941,7 +16942,7 @@
         <v>0.19241321133512559</v>
       </c>
     </row>
-    <row r="87" spans="2:9">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>6.3</v>
       </c>
@@ -16967,7 +16968,7 @@
         <v>0.19118567290769956</v>
       </c>
     </row>
-    <row r="88" spans="2:9">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>6.4</v>
       </c>
@@ -16993,7 +16994,7 @@
         <v>0.1899851141536229</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>6.5</v>
       </c>
@@ -17019,7 +17020,7 @@
         <v>0.18881053423988334</v>
       </c>
     </row>
-    <row r="90" spans="2:9">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>6.6</v>
       </c>
@@ -17045,7 +17046,7 @@
         <v>0.18766098412966847</v>
       </c>
     </row>
-    <row r="91" spans="2:9">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>6.7</v>
       </c>
@@ -17071,7 +17072,7 @@
         <v>0.18653556316531078</v>
       </c>
     </row>
-    <row r="92" spans="2:9">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>6.8</v>
       </c>
@@ -17097,7 +17098,7 @@
         <v>0.18543341592380869</v>
       </c>
     </row>
-    <row r="93" spans="2:9">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>6.9</v>
       </c>
@@ -17123,7 +17124,7 @@
         <v>0.18435372931952995</v>
       </c>
     </row>
-    <row r="94" spans="2:9">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>7</v>
       </c>
@@ -17149,7 +17150,7 @@
         <v>0.18329572993139759</v>
       </c>
     </row>
-    <row r="95" spans="2:9">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>7.1</v>
       </c>
@@ -17175,7 +17176,7 @@
         <v>0.18225868153423685</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>7.2</v>
       </c>
@@ -17201,7 +17202,7 @@
         <v>0.18124188281605788</v>
       </c>
     </row>
-    <row r="97" spans="2:9">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>7.3</v>
       </c>
@@ -17227,7 +17228,7 @@
         <v>0.18024466526490401</v>
       </c>
     </row>
-    <row r="98" spans="2:9">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>7.4</v>
       </c>
@@ -17253,7 +17254,7 @@
         <v>0.17926639121054075</v>
       </c>
     </row>
-    <row r="99" spans="2:9">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>7.5</v>
       </c>
@@ -17279,7 +17280,7 @@
         <v>0.17830645200771722</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>7.6</v>
       </c>
@@ -17305,7 +17306,7 @@
         <v>0.17736426634903146</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>7.7</v>
       </c>
@@ -17331,7 +17332,7 @@
         <v>0.17643927869658296</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>7.8</v>
       </c>
@@ -17357,7 +17358,7 @@
         <v>0.1755309578226289</v>
       </c>
     </row>
-    <row r="103" spans="2:9">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>7.9</v>
       </c>
@@ -17383,7 +17384,7 @@
         <v>0.17463879545037839</v>
       </c>
     </row>
-    <row r="104" spans="2:9">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>8</v>
       </c>
@@ -17409,7 +17410,7 @@
         <v>0.17376230498688308</v>
       </c>
     </row>
-    <row r="105" spans="2:9">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>8.1</v>
       </c>
@@ -17435,7 +17436,7 @@
         <v>0.17290102034072052</v>
       </c>
     </row>
-    <row r="106" spans="2:9">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -17461,7 +17462,7 @@
         <v>0.17205449481782664</v>
       </c>
     </row>
-    <row r="107" spans="2:9">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>8.3000000000000007</v>
       </c>
@@ -17487,7 +17488,7 @@
         <v>0.17122230008943015</v>
       </c>
     </row>
-    <row r="108" spans="2:9">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>8.4</v>
       </c>
@@ -17513,7 +17514,7 @@
         <v>0.17040402522657477</v>
       </c>
     </row>
-    <row r="109" spans="2:9">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>8.5</v>
       </c>
@@ -17539,7 +17540,7 @@
         <v>0.16959927579619768</v>
       </c>
     </row>
-    <row r="110" spans="2:9">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>8.6</v>
       </c>
@@ -17565,7 +17566,7 @@
         <v>0.16880767301416735</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -17591,7 +17592,7 @@
         <v>0.16802885295107545</v>
       </c>
     </row>
-    <row r="112" spans="2:9">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>8.8000000000000007</v>
       </c>
@@ -17617,7 +17618,7 @@
         <v>0.16726246578693307</v>
       </c>
     </row>
-    <row r="113" spans="2:9">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>8.9</v>
       </c>
@@ -17643,7 +17644,7 @@
         <v>0.16650817511124263</v>
       </c>
     </row>
-    <row r="114" spans="2:9">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>9</v>
       </c>
@@ -17669,7 +17670,7 @@
         <v>0.16576565726520748</v>
       </c>
     </row>
-    <row r="115" spans="2:9">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>9.1</v>
       </c>
@@ -17695,7 +17696,7 @@
         <v>0.16503460072310608</v>
       </c>
     </row>
-    <row r="116" spans="2:9">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>9.1999999999999993</v>
       </c>
@@ -17721,7 +17722,7 @@
         <v>0.16431470551009669</v>
       </c>
     </row>
-    <row r="117" spans="2:9">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>9.3000000000000007</v>
       </c>
@@ -17747,7 +17748,7 @@
         <v>0.16360568265393824</v>
       </c>
     </row>
-    <row r="118" spans="2:9">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>9.4</v>
       </c>
@@ -17773,7 +17774,7 @@
         <v>0.16290725366830944</v>
       </c>
     </row>
-    <row r="119" spans="2:9">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>9.5</v>
       </c>
@@ -17799,7 +17800,7 @@
         <v>0.16221915006559193</v>
       </c>
     </row>
-    <row r="120" spans="2:9">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>9.6</v>
       </c>
@@ -17825,7 +17826,7 @@
         <v>0.16154111289714557</v>
       </c>
     </row>
-    <row r="121" spans="2:9">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>9.6999999999999993</v>
       </c>
@@ -17851,7 +17852,7 @@
         <v>0.1608728923192575</v>
       </c>
     </row>
-    <row r="122" spans="2:9">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>9.8000000000000007</v>
       </c>
@@ -17877,7 +17878,7 @@
         <v>0.16021424718308225</v>
       </c>
     </row>
-    <row r="123" spans="2:9">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>9.9</v>
       </c>
@@ -17903,7 +17904,7 @@
         <v>0.1595649446470179</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>10</v>
       </c>
@@ -17929,7 +17930,7 @@
         <v>0.15892475981007698</v>
       </c>
     </row>
-    <row r="125" spans="2:9">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>10.1</v>
       </c>
@@ -17955,7 +17956,7 @@
         <v>0.15829347536491883</v>
       </c>
     </row>
-    <row r="126" spans="2:9">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>10.199999999999999</v>
       </c>
@@ -17981,7 +17982,7 @@
         <v>0.15767088126930554</v>
       </c>
     </row>
-    <row r="127" spans="2:9">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>10.3</v>
       </c>
@@ -18007,7 +18008,7 @@
         <v>0.15705677443483318</v>
       </c>
     </row>
-    <row r="128" spans="2:9">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>10.4</v>
       </c>
@@ -18033,7 +18034,7 @@
         <v>0.15645095843187257</v>
       </c>
     </row>
-    <row r="129" spans="2:9">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <v>10.5</v>
       </c>
@@ -18059,7 +18060,7 @@
         <v>0.1558532432097284</v>
       </c>
     </row>
-    <row r="130" spans="2:9">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>10.6</v>
       </c>
@@ -18085,7 +18086,7 @@
         <v>0.15526344483109492</v>
       </c>
     </row>
-    <row r="131" spans="2:9">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>10.7</v>
       </c>
@@ -18111,7 +18112,7 @@
         <v>0.15468138521995167</v>
       </c>
     </row>
-    <row r="132" spans="2:9">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>10.8</v>
       </c>
@@ -18137,7 +18138,7 @@
         <v>0.15410689192209917</v>
       </c>
     </row>
-    <row r="133" spans="2:9">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>10.9</v>
       </c>
@@ -18163,7 +18164,7 @@
         <v>0.15353979787759178</v>
       </c>
     </row>
-    <row r="134" spans="2:9">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>11</v>
       </c>
@@ -18189,7 +18190,7 @@
         <v>0.15297994120437214</v>
       </c>
     </row>
-    <row r="135" spans="2:9">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>11.1</v>
       </c>
@@ -18215,7 +18216,7 @@
         <v>0.15242716499246103</v>
       </c>
     </row>
-    <row r="136" spans="2:9">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>11.2</v>
       </c>
@@ -18241,7 +18242,7 @@
         <v>0.15188131710809652</v>
       </c>
     </row>
-    <row r="137" spans="2:9">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>11.3</v>
       </c>
@@ -18267,7 +18268,7 @@
         <v>0.15134225000725832</v>
       </c>
     </row>
-    <row r="138" spans="2:9">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <v>11.4</v>
       </c>
@@ -18293,7 +18294,7 @@
         <v>0.15080982055804878</v>
       </c>
     </row>
-    <row r="139" spans="2:9">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <v>11.5</v>
       </c>
@@ -18319,7 +18320,7 @@
         <v>0.1502838898714362</v>
       </c>
     </row>
-    <row r="140" spans="2:9">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>11.6</v>
       </c>
@@ -18345,7 +18346,7 @@
         <v>0.14976432313989765</v>
       </c>
     </row>
-    <row r="141" spans="2:9">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <v>11.7</v>
       </c>
@@ -18371,7 +18372,7 @@
         <v>0.14925098948352883</v>
       </c>
     </row>
-    <row r="142" spans="2:9">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>11.8</v>
       </c>
@@ -18397,7 +18398,7 @@
         <v>0.14874376180321447</v>
       </c>
     </row>
-    <row r="143" spans="2:9">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>11.9</v>
       </c>
@@ -18423,7 +18424,7 @@
         <v>0.14824251664047791</v>
       </c>
     </row>
-    <row r="144" spans="2:9">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <v>12</v>
       </c>
@@ -18449,7 +18450,7 @@
         <v>0.1477471340436545</v>
       </c>
     </row>
-    <row r="145" spans="2:9">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>12.1</v>
       </c>
@@ -18475,7 +18476,7 @@
         <v>0.1472574974400512</v>
       </c>
     </row>
-    <row r="146" spans="2:9">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>12.2</v>
       </c>
@@ -18501,7 +18502,7 @@
         <v>0.1467734935137798</v>
       </c>
     </row>
-    <row r="147" spans="2:9">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>12.3</v>
       </c>
@@ -18527,7 +18528,7 @@
         <v>0.14629501208896617</v>
       </c>
     </row>
-    <row r="148" spans="2:9">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>12.4</v>
       </c>
@@ -18553,7 +18554,7 @@
         <v>0.14582194601805815</v>
       </c>
     </row>
-    <row r="149" spans="2:9">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>12.5</v>
       </c>
@@ -18579,7 +18580,7 @@
         <v>0.14535419107497025</v>
       </c>
     </row>
-    <row r="150" spans="2:9">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>12.6</v>
       </c>
@@ -18605,7 +18606,7 @@
         <v>0.14489164585281919</v>
       </c>
     </row>
-    <row r="151" spans="2:9">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>12.7</v>
       </c>
@@ -18631,7 +18632,7 @@
         <v>0.14443421166601747</v>
       </c>
     </row>
-    <row r="152" spans="2:9">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>12.8</v>
       </c>
@@ -18657,7 +18658,7 @@
         <v>0.14398179245650766</v>
       </c>
     </row>
-    <row r="153" spans="2:9">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>12.9</v>
       </c>
@@ -18683,7 +18684,7 @@
         <v>0.14353429470393081</v>
       </c>
     </row>
-    <row r="154" spans="2:9">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>13</v>
       </c>
@@ -18709,7 +18710,7 @@
         <v>0.14309162733953495</v>
       </c>
     </row>
-    <row r="155" spans="2:9">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>13.1</v>
       </c>
@@ -18735,7 +18736,7 @@
         <v>0.14265370166364086</v>
       </c>
     </row>
-    <row r="156" spans="2:9">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>13.2</v>
       </c>
@@ -18761,7 +18762,7 @@
         <v>0.1422204312664917</v>
       </c>
     </row>
-    <row r="157" spans="2:9">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>13.3</v>
       </c>
@@ -18787,7 +18788,7 @@
         <v>0.14179173195232381</v>
       </c>
     </row>
-    <row r="158" spans="2:9">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>13.4</v>
       </c>
@@ -18813,7 +18814,7 @@
         <v>0.14136752166650418</v>
       </c>
     </row>
-    <row r="159" spans="2:9">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>13.5</v>
       </c>
@@ -18839,7 +18840,7 @@
         <v>0.14094772042558881</v>
       </c>
     </row>
-    <row r="160" spans="2:9">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>13.6</v>
       </c>
@@ -18865,7 +18866,7 @@
         <v>0.14053225025016497</v>
       </c>
     </row>
-    <row r="161" spans="2:9">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>13.7</v>
       </c>
@@ -18891,7 +18892,7 @@
         <v>0.14012103510034526</v>
       </c>
     </row>
-    <row r="162" spans="2:9">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>13.8</v>
       </c>
@@ -18917,7 +18918,7 @@
         <v>0.13971400081379262</v>
       </c>
     </row>
-    <row r="163" spans="2:9">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>13.9</v>
       </c>
@@ -18943,7 +18944,7 @@
         <v>0.13931107504615753</v>
       </c>
     </row>
-    <row r="164" spans="2:9">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" s="1">
         <v>14</v>
       </c>
@@ -18969,7 +18970,7 @@
         <v>0.13891218721381757</v>
       </c>
     </row>
-    <row r="165" spans="2:9">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>14.1</v>
       </c>
@@ -18995,7 +18996,7 @@
         <v>0.13851726843881512</v>
       </c>
     </row>
-    <row r="166" spans="2:9">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>14.2</v>
       </c>
@@ -19021,7 +19022,7 @@
         <v>0.13812625149589283</v>
       </c>
     </row>
-    <row r="167" spans="2:9">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>14.3</v>
       </c>
@@ -19047,7 +19048,7 @@
         <v>0.13773907076153402</v>
       </c>
     </row>
-    <row r="168" spans="2:9">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>14.4</v>
       </c>
@@ -19073,7 +19074,7 @@
         <v>0.13735566216491757</v>
       </c>
     </row>
-    <row r="169" spans="2:9">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>14.5</v>
       </c>
@@ -19099,7 +19100,7 @@
         <v>0.13697596314070351</v>
       </c>
     </row>
-    <row r="170" spans="2:9">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>14.6</v>
       </c>
@@ -19125,7 +19126,7 @@
         <v>0.13659991258356818</v>
       </c>
     </row>
-    <row r="171" spans="2:9">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>14.7</v>
       </c>
@@ -19151,7 +19152,7 @@
         <v>0.13622745080441312</v>
       </c>
     </row>
-    <row r="172" spans="2:9">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>14.8</v>
       </c>
@@ -19177,7 +19178,7 @@
         <v>0.13585851948817529</v>
       </c>
     </row>
-    <row r="173" spans="2:9">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>14.9</v>
       </c>
@@ -19203,7 +19204,7 @@
         <v>0.13549306165316885</v>
       </c>
     </row>
-    <row r="174" spans="2:9">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>15</v>
       </c>
@@ -19239,16 +19240,16 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:I169"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -19277,7 +19278,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -19306,7 +19307,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -19332,10 +19333,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -19364,7 +19365,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -19393,7 +19394,7 @@
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -19422,7 +19423,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -19451,7 +19452,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -19480,7 +19481,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -19509,7 +19510,7 @@
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -19538,7 +19539,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -19567,7 +19568,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -19596,7 +19597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -19625,7 +19626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -19654,7 +19655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -19683,7 +19684,7 @@
         <v>0.2828</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -19712,7 +19713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -19741,7 +19742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -19767,7 +19768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.1</v>
       </c>
@@ -19793,7 +19794,7 @@
         <v>1.5242521163440099</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.2</v>
       </c>
@@ -19819,7 +19820,7 @@
         <v>0.98385840227138799</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.3</v>
       </c>
@@ -19845,7 +19846,7 @@
         <v>0.76158269429599801</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.4</v>
       </c>
@@ -19871,7 +19872,7 @@
         <v>0.63505068836102097</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.5</v>
       </c>
@@ -19897,7 +19898,7 @@
         <v>0.55157181656758703</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.6</v>
       </c>
@@ -19923,7 +19924,7 @@
         <v>0.49157847627255002</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.7</v>
       </c>
@@ -19949,7 +19950,7 @@
         <v>0.445975166342087</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.8</v>
       </c>
@@ -19975,7 +19976,7 @@
         <v>0.40990591314436198</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.9</v>
       </c>
@@ -20001,7 +20002,7 @@
         <v>0.38051985890780798</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1</v>
       </c>
@@ -20027,7 +20028,7 @@
         <v>0.35602283924507699</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1.1000000000000001</v>
       </c>
@@ -20053,7 +20054,7 @@
         <v>0.33522400531413199</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1.2</v>
       </c>
@@ -20079,7 +20080,7 @@
         <v>0.31729896194374602</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1.3</v>
       </c>
@@ -20105,7 +20106,7 @@
         <v>0.301657159177808</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1.4</v>
       </c>
@@ -20131,7 +20132,7 @@
         <v>0.28786341177105701</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>1.5</v>
       </c>
@@ -20157,7 +20158,7 @@
         <v>0.27558928451208697</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1.6</v>
       </c>
@@ -20183,7 +20184,7 @@
         <v>0.26458180537423998</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1.7</v>
       </c>
@@ -20209,7 +20210,7 @@
         <v>0.25464266577730499</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>1.8</v>
       </c>
@@ -20235,7 +20236,7 @@
         <v>0.24561400073075201</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1.9</v>
       </c>
@@ -20261,7 +20262,7 @@
         <v>0.23736842790156501</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2</v>
       </c>
@@ -20287,7 +20288,7 @@
         <v>0.22980191927299801</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2.1</v>
       </c>
@@ -20313,7 +20314,7 @@
         <v>0.22282860238801599</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2.2000000000000002</v>
       </c>
@@ -20339,7 +20340,7 @@
         <v>0.21637690427647099</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2.2999999999999998</v>
       </c>
@@ -20365,7 +20366,7 @@
         <v>0.210386647597369</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>2.4</v>
       </c>
@@ -20391,7 +20392,7 @@
         <v>0.20480683372060199</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2.5</v>
       </c>
@@ -20417,7 +20418,7 @@
         <v>0.19959392909447299</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2.6</v>
       </c>
@@ -20443,7 +20444,7 @@
         <v>0.19471052556204599</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2.7</v>
       </c>
@@ -20469,7 +20470,7 @@
         <v>0.190124282113665</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>2.8</v>
       </c>
@@ -20495,7 +20496,7 @@
         <v>0.18580708095506601</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>2.9</v>
       </c>
@@ -20521,7 +20522,7 @@
         <v>0.185093484703056</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>3</v>
       </c>
@@ -20547,7 +20548,7 @@
         <v>0.18621535629190999</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>3.1</v>
       </c>
@@ -20573,7 +20574,7 @@
         <v>0.18733722788076501</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>3.2</v>
       </c>
@@ -20599,7 +20600,7 @@
         <v>0.18845909946962</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>3.3</v>
       </c>
@@ -20625,7 +20626,7 @@
         <v>0.18958097105847399</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>3.4</v>
       </c>
@@ -20651,7 +20652,7 @@
         <v>0.19070284264732901</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>3.5</v>
       </c>
@@ -20677,7 +20678,7 @@
         <v>0.191824714236183</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>3.6</v>
       </c>
@@ -20703,7 +20704,7 @@
         <v>0.19294658582503799</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>3.7</v>
       </c>
@@ -20729,7 +20730,7 @@
         <v>0.194068457413893</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>3.8</v>
       </c>
@@ -20755,7 +20756,7 @@
         <v>0.19519032900274699</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>3.9</v>
       </c>
@@ -20781,7 +20782,7 @@
         <v>0.19631220059160201</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>4</v>
       </c>
@@ -20807,7 +20808,7 @@
         <v>0.197434072180457</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>4.0999999999999996</v>
       </c>
@@ -20833,7 +20834,7 @@
         <v>0.19855594376931099</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>4.2</v>
       </c>
@@ -20859,7 +20860,7 @@
         <v>0.19967781535816601</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>4.3</v>
       </c>
@@ -20885,7 +20886,7 @@
         <v>0.20079968694702</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>4.4000000000000004</v>
       </c>
@@ -20911,7 +20912,7 @@
         <v>0.20192155853587501</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>4.5</v>
       </c>
@@ -20937,7 +20938,7 @@
         <v>0.20304343012473</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>4.5999999999999996</v>
       </c>
@@ -20963,7 +20964,7 @@
         <v>0.20416530171358399</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>4.7</v>
       </c>
@@ -20989,7 +20990,7 @@
         <v>0.20528717330243901</v>
       </c>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>4.8</v>
       </c>
@@ -21015,7 +21016,7 @@
         <v>0.206409044891293</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>4.9000000000000004</v>
       </c>
@@ -21041,7 +21042,7 @@
         <v>0.20753091648014799</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>5</v>
       </c>
@@ -21067,7 +21068,7 @@
         <v>0.208652788069003</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>5.0999999999999996</v>
       </c>
@@ -21093,7 +21094,7 @@
         <v>0.20810529232236999</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>5.2</v>
       </c>
@@ -21119,7 +21120,7 @@
         <v>0.206495151016309</v>
       </c>
     </row>
-    <row r="72" spans="2:9">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>5.3</v>
       </c>
@@ -21145,7 +21146,7 @@
         <v>0.20492778573594</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>5.4</v>
       </c>
@@ -21171,7 +21172,7 @@
         <v>0.20340128458826301</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>5.5</v>
       </c>
@@ -21197,7 +21198,7 @@
         <v>0.20191385452725599</v>
       </c>
     </row>
-    <row r="75" spans="2:9">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>5.6</v>
       </c>
@@ -21223,7 +21224,7 @@
         <v>0.20046381196475299</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>5.7</v>
       </c>
@@ -21249,7 +21250,7 @@
         <v>0.19904957427561801</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>5.8</v>
       </c>
@@ -21275,7 +21276,7 @@
         <v>0.19766965209800999</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>5.9</v>
       </c>
@@ -21301,7 +21302,7 @@
         <v>0.19632264234203201</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>6</v>
       </c>
@@ -21327,7 +21328,7 @@
         <v>0.19500722183083699</v>
       </c>
     </row>
-    <row r="80" spans="2:9">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>6.1</v>
       </c>
@@ -21353,7 +21354,7 @@
         <v>0.19372214150747399</v>
       </c>
     </row>
-    <row r="81" spans="2:9">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>6.2</v>
       </c>
@@ -21379,7 +21380,7 @@
         <v>0.19246622114880299</v>
       </c>
     </row>
-    <row r="82" spans="2:9">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>6.3</v>
       </c>
@@ -21405,7 +21406,7 @@
         <v>0.19123834453470601</v>
       </c>
     </row>
-    <row r="83" spans="2:9">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>6.4</v>
       </c>
@@ -21431,7 +21432,7 @@
         <v>0.19003745502685501</v>
       </c>
     </row>
-    <row r="84" spans="2:9">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>6.5</v>
       </c>
@@ -21457,7 +21458,7 @@
         <v>0.18886255151650799</v>
       </c>
     </row>
-    <row r="85" spans="2:9">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>6.6</v>
       </c>
@@ -21483,7 +21484,7 @@
         <v>0.18771268470539401</v>
       </c>
     </row>
-    <row r="86" spans="2:9">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>6.7</v>
       </c>
@@ -21509,7 +21510,7 @@
         <v>0.186586953687713</v>
       </c>
     </row>
-    <row r="87" spans="2:9">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>6.8</v>
       </c>
@@ -21535,7 +21536,7 @@
         <v>0.185484502804795</v>
       </c>
     </row>
-    <row r="88" spans="2:9">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>6.9</v>
       </c>
@@ -21561,7 +21562,7 @@
         <v>0.184404518747003</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>7</v>
       </c>
@@ -21587,7 +21588,7 @@
         <v>0.18334622788018201</v>
       </c>
     </row>
-    <row r="90" spans="2:9">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>7.1</v>
       </c>
@@ -21613,7 +21614,7 @@
         <v>0.182308893776328</v>
       </c>
     </row>
-    <row r="91" spans="2:9">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>7.2</v>
       </c>
@@ -21639,7 +21640,7 @@
         <v>0.18129181493023999</v>
       </c>
     </row>
-    <row r="92" spans="2:9">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>7.3</v>
       </c>
@@ -21665,7 +21666,7 @@
         <v>0.18029432264578599</v>
       </c>
     </row>
-    <row r="93" spans="2:9">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>7.4</v>
       </c>
@@ -21691,7 +21692,7 @@
         <v>0.17931577907705301</v>
       </c>
     </row>
-    <row r="94" spans="2:9">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>7.5</v>
       </c>
@@ -21717,7 +21718,7 @@
         <v>0.178355575411109</v>
       </c>
     </row>
-    <row r="95" spans="2:9">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>7.6</v>
       </c>
@@ -21743,7 +21744,7 @@
         <v>0.177413130180402</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>7.7</v>
       </c>
@@ -21769,7 +21770,7 @@
         <v>0.17648788769397999</v>
       </c>
     </row>
-    <row r="97" spans="2:9">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>7.8</v>
       </c>
@@ -21795,7 +21796,7 @@
         <v>0.175579316577749</v>
       </c>
     </row>
-    <row r="98" spans="2:9">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>7.9</v>
       </c>
@@ -21821,7 +21822,7 @@
         <v>0.17468690841488499</v>
       </c>
     </row>
-    <row r="99" spans="2:9">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>8</v>
       </c>
@@ -21847,7 +21848,7 @@
         <v>0.17381017647838601</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>8.1</v>
       </c>
@@ -21873,7 +21874,7 @@
         <v>0.17294865454842001</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>8.1999999999999993</v>
       </c>
@@ -21899,7 +21900,7 @@
         <v>0.17210189580785901</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>8.3000000000000007</v>
       </c>
@@ -21925,7 +21926,7 @@
         <v>0.17126947180992799</v>
       </c>
     </row>
-    <row r="103" spans="2:9">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>8.4</v>
       </c>
@@ -21951,7 +21952,7 @@
         <v>0.170450971512458</v>
       </c>
     </row>
-    <row r="104" spans="2:9">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>8.5</v>
       </c>
@@ -21977,7 +21978,7 @@
         <v>0.16964600037372199</v>
       </c>
     </row>
-    <row r="105" spans="2:9">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>8.6</v>
       </c>
@@ -22003,7 +22004,7 @@
         <v>0.16885417950523199</v>
       </c>
     </row>
-    <row r="106" spans="2:9">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>8.6999999999999993</v>
       </c>
@@ -22029,7 +22030,7 @@
         <v>0.16807514487731801</v>
       </c>
     </row>
-    <row r="107" spans="2:9">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>8.8000000000000007</v>
       </c>
@@ -22055,7 +22056,7 @@
         <v>0.16730854657361599</v>
       </c>
     </row>
-    <row r="108" spans="2:9">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>8.9</v>
       </c>
@@ -22081,7 +22082,7 @@
         <v>0.16655404809094701</v>
       </c>
     </row>
-    <row r="109" spans="2:9">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>9</v>
       </c>
@@ -22107,7 +22108,7 @@
         <v>0.16581132568134499</v>
       </c>
     </row>
-    <row r="110" spans="2:9">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>9.1</v>
       </c>
@@ -22133,7 +22134,7 @@
         <v>0.165080067733266</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>9.1999999999999993</v>
       </c>
@@ -22159,7 +22160,7 @@
         <v>0.16435997418922199</v>
       </c>
     </row>
-    <row r="112" spans="2:9">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>9.3000000000000007</v>
       </c>
@@ -22185,7 +22186,7 @@
         <v>0.16365075599736301</v>
       </c>
     </row>
-    <row r="113" spans="2:9">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>9.4</v>
       </c>
@@ -22211,7 +22212,7 @@
         <v>0.162952134594643</v>
       </c>
     </row>
-    <row r="114" spans="2:9">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>9.5</v>
       </c>
@@ -22237,7 +22238,7 @@
         <v>0.162263841419476</v>
       </c>
     </row>
-    <row r="115" spans="2:9">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>9.6</v>
       </c>
@@ -22263,7 +22264,7 @@
         <v>0.16158561745188199</v>
       </c>
     </row>
-    <row r="116" spans="2:9">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>9.6999999999999993</v>
       </c>
@@ -22289,7 +22290,7 @@
         <v>0.16091721277931501</v>
       </c>
     </row>
-    <row r="117" spans="2:9">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>9.8000000000000007</v>
       </c>
@@ -22315,7 +22316,7 @@
         <v>0.16025838618649399</v>
       </c>
     </row>
-    <row r="118" spans="2:9">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>9.9</v>
       </c>
@@ -22341,7 +22342,7 @@
         <v>0.15960890476766901</v>
       </c>
     </row>
-    <row r="119" spans="2:9">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>10</v>
       </c>
@@ -22367,7 +22368,7 @@
         <v>0.15896854355989201</v>
       </c>
     </row>
-    <row r="120" spans="2:9">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>10.1</v>
       </c>
@@ -22393,7 +22394,7 @@
         <v>0.15833708519595499</v>
       </c>
     </row>
-    <row r="121" spans="2:9">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>10.199999999999999</v>
       </c>
@@ -22419,7 +22420,7 @@
         <v>0.15771431957575199</v>
       </c>
     </row>
-    <row r="122" spans="2:9">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>10.3</v>
       </c>
@@ -22445,7 +22446,7 @@
         <v>0.15710004355493001</v>
       </c>
     </row>
-    <row r="123" spans="2:9">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>10.4</v>
       </c>
@@ -22471,7 +22472,7 @@
         <v>0.156494060649743</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>10.5</v>
       </c>
@@ -22497,7 +22498,7 @@
         <v>0.15589618075713599</v>
       </c>
     </row>
-    <row r="125" spans="2:9">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>10.6</v>
       </c>
@@ -22523,7 +22524,7 @@
         <v>0.15530621988912899</v>
       </c>
     </row>
-    <row r="126" spans="2:9">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>10.7</v>
       </c>
@@ -22549,7 +22550,7 @@
         <v>0.15472399992064101</v>
       </c>
     </row>
-    <row r="127" spans="2:9">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>10.8</v>
       </c>
@@ -22575,7 +22576,7 @@
         <v>0.15414934834996299</v>
       </c>
     </row>
-    <row r="128" spans="2:9">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>10.9</v>
       </c>
@@ -22601,7 +22602,7 @@
         <v>0.153582098071123</v>
       </c>
     </row>
-    <row r="129" spans="2:9">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>11</v>
       </c>
@@ -22627,7 +22628,7 @@
         <v>0.15302208715746601</v>
       </c>
     </row>
-    <row r="130" spans="2:9">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>11.1</v>
       </c>
@@ -22653,7 +22654,7 @@
         <v>0.152469158655783</v>
       </c>
     </row>
-    <row r="131" spans="2:9">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>11.2</v>
       </c>
@@ -22679,7 +22680,7 @@
         <v>0.15192316039040099</v>
       </c>
     </row>
-    <row r="132" spans="2:9">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>11.3</v>
       </c>
@@ -22705,7 +22706,7 @@
         <v>0.15138394477664899</v>
       </c>
     </row>
-    <row r="133" spans="2:9">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>11.4</v>
       </c>
@@ -22731,7 +22732,7 @@
         <v>0.15085136864319801</v>
       </c>
     </row>
-    <row r="134" spans="2:9">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>11.5</v>
       </c>
@@ -22757,7 +22758,7 @@
         <v>0.150325293062753</v>
       </c>
     </row>
-    <row r="135" spans="2:9">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>11.6</v>
       </c>
@@ -22783,7 +22784,7 @@
         <v>0.14980558319064999</v>
       </c>
     </row>
-    <row r="136" spans="2:9">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>11.7</v>
       </c>
@@ -22809,7 +22810,7 @@
         <v>0.149292108110928</v>
       </c>
     </row>
-    <row r="137" spans="2:9">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>11.8</v>
       </c>
@@ -22835,7 +22836,7 @@
         <v>0.14878474068945699</v>
       </c>
     </row>
-    <row r="138" spans="2:9">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>11.9</v>
       </c>
@@ -22861,7 +22862,7 @@
         <v>0.14828335743374599</v>
       </c>
     </row>
-    <row r="139" spans="2:9">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>12</v>
       </c>
@@ -22887,7 +22888,7 @@
         <v>0.14778783835908399</v>
       </c>
     </row>
-    <row r="140" spans="2:9">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>12.1</v>
       </c>
@@ -22913,7 +22914,7 @@
         <v>0.14729806686066299</v>
       </c>
     </row>
-    <row r="141" spans="2:9">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>12.2</v>
       </c>
@@ -22939,7 +22940,7 @@
         <v>0.14681392959137499</v>
       </c>
     </row>
-    <row r="142" spans="2:9">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>12.3</v>
       </c>
@@ -22965,7 +22966,7 @@
         <v>0.146335316344994</v>
       </c>
     </row>
-    <row r="143" spans="2:9">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>12.4</v>
       </c>
@@ -22991,7 +22992,7 @@
         <v>0.14586211994444701</v>
       </c>
     </row>
-    <row r="144" spans="2:9">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>12.5</v>
       </c>
@@ -23017,7 +23018,7 @@
         <v>0.14539423613493599</v>
       </c>
     </row>
-    <row r="145" spans="2:9">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>12.6</v>
       </c>
@@ -23043,7 +23044,7 @@
         <v>0.14493156348163899</v>
       </c>
     </row>
-    <row r="146" spans="2:9">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>12.7</v>
       </c>
@@ -23069,7 +23070,7 @@
         <v>0.14447400327178</v>
       </c>
     </row>
-    <row r="147" spans="2:9">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>12.8</v>
       </c>
@@ -23095,7 +23096,7 @@
         <v>0.14402145942083899</v>
       </c>
     </row>
-    <row r="148" spans="2:9">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>12.9</v>
       </c>
@@ -23121,7 +23122,7 @@
         <v>0.143573838382692</v>
       </c>
     </row>
-    <row r="149" spans="2:9">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>13</v>
       </c>
@@ -23147,7 +23148,7 @@
         <v>0.14313104906349799</v>
       </c>
     </row>
-    <row r="150" spans="2:9">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>13.1</v>
       </c>
@@ -23173,7 +23174,7 @@
         <v>0.14269300273913901</v>
       </c>
     </row>
-    <row r="151" spans="2:9">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>13.2</v>
       </c>
@@ -23199,7 +23200,7 @@
         <v>0.142259612976054</v>
       </c>
     </row>
-    <row r="152" spans="2:9">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>13.3</v>
       </c>
@@ -23225,7 +23226,7 @@
         <v>0.141830795555283</v>
       </c>
     </row>
-    <row r="153" spans="2:9">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>13.4</v>
       </c>
@@ -23251,7 +23252,7 @@
         <v>0.14140646839958701</v>
       </c>
     </row>
-    <row r="154" spans="2:9">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>13.5</v>
       </c>
@@ -23277,7 +23278,7 @@
         <v>0.14098655150348699</v>
       </c>
     </row>
-    <row r="155" spans="2:9">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>13.6</v>
       </c>
@@ -23303,7 +23304,7 @@
         <v>0.140570966866086</v>
       </c>
     </row>
-    <row r="156" spans="2:9">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>13.7</v>
       </c>
@@ -23329,7 +23330,7 @@
         <v>0.14015963842654799</v>
       </c>
     </row>
-    <row r="157" spans="2:9">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>13.8</v>
       </c>
@@ -23355,7 +23356,7 @@
         <v>0.13975249200210499</v>
       </c>
     </row>
-    <row r="158" spans="2:9">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>13.9</v>
       </c>
@@ -23381,7 +23382,7 @@
         <v>0.139349455228475</v>
       </c>
     </row>
-    <row r="159" spans="2:9">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>14</v>
       </c>
@@ -23407,7 +23408,7 @@
         <v>0.138950457502591</v>
       </c>
     </row>
-    <row r="160" spans="2:9">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>14.1</v>
       </c>
@@ -23433,7 +23434,7 @@
         <v>0.13855542992752001</v>
       </c>
     </row>
-    <row r="161" spans="2:9">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>14.2</v>
       </c>
@@ -23459,7 +23460,7 @@
         <v>0.13816430525948301</v>
       </c>
     </row>
-    <row r="162" spans="2:9">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>14.3</v>
       </c>
@@ -23485,7 +23486,7 @@
         <v>0.13777701785688401</v>
       </c>
     </row>
-    <row r="163" spans="2:9">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>14.4</v>
       </c>
@@ -23511,7 +23512,7 @@
         <v>0.137393503631251</v>
       </c>
     </row>
-    <row r="164" spans="2:9">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>14.5</v>
       </c>
@@ -23537,7 +23538,7 @@
         <v>0.13701370000000701</v>
       </c>
     </row>
-    <row r="165" spans="2:9">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>14.6</v>
       </c>
@@ -23563,7 +23564,7 @@
         <v>0.136637545840994</v>
       </c>
     </row>
-    <row r="166" spans="2:9">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>14.7</v>
       </c>
@@ -23589,7 +23590,7 @@
         <v>0.136264981448669</v>
       </c>
     </row>
-    <row r="167" spans="2:9">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>14.8</v>
       </c>
@@ -23615,7 +23616,7 @@
         <v>0.13589594849190401</v>
       </c>
     </row>
-    <row r="168" spans="2:9">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>14.9</v>
       </c>
@@ -23641,7 +23642,7 @@
         <v>0.13553038997331299</v>
       </c>
     </row>
-    <row r="169" spans="2:9">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>15</v>
       </c>
